--- a/MVCProject.Api/Reports/Employee.xlsx
+++ b/MVCProject.Api/Reports/Employee.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="150">
   <si>
     <t xml:space="preserve">Employee Id</t>
   </si>
@@ -110,138 +110,138 @@
     <t xml:space="preserve">Bachelor of Computer Application</t>
   </si>
   <si>
+    <t xml:space="preserve">Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urvi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urvashi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9898016054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9898015060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katargam,Surat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master of Computer Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nandani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nandani@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7541896320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dudhat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harsh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aat,Navsari.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urvshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adajan ,Surat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor of Commerce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">om</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.Com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master of Commerce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2658423659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7595394256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dumas Road,Surat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raj@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kp@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sss</t>
+  </si>
+  <si>
     <t xml:space="preserve">InActive</t>
   </si>
   <si>
-    <t xml:space="preserve">Urvi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urvashi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9898016054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9898015060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katargam,Surat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master of Computer Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nandani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nandani@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7541896320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dudhat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harsh@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aat,Navsari.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urvshi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adajan ,Surat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bachelor of Commerce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">om</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M.Com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master of Commerce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2658423659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7595394256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dumas Road,Surat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demo@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raj123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raj@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kartik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kp@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sss</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shree</t>
   </si>
   <si>
@@ -288,6 +288,180 @@
   </si>
   <si>
     <t xml:space="preserve">as@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arya@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jay@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radha@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9536415726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9563147562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vnsgu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hjgjh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radha123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rj@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gosiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gk@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anjalishimpi01@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prem111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ridham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mistry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rm@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaya@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maharastra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ka@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demo1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vesu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prashant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">borse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adajan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dharshan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soneji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darshan@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">richa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tandel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">richa@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anjali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shimpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anjalishimpi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6523288888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vijay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vijay@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -416,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>44942</v>
+        <v>44982</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -431,7 +605,7 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>25534</v>
+        <v>44983</v>
       </c>
       <c r="K2" t="s">
         <v>26</v>
@@ -450,10 +624,10 @@
         <v>29</v>
       </c>
       <c r="Q2">
-        <v>43438</v>
+        <v>44974</v>
       </c>
       <c r="R2">
-        <v>44169</v>
+        <v>44964</v>
       </c>
       <c r="S2" t="s">
         <v>30</v>
@@ -479,7 +653,7 @@
         <v>35</v>
       </c>
       <c r="E3">
-        <v>44980</v>
+        <v>44991</v>
       </c>
       <c r="F3" t="s">
         <v>36</v>
@@ -494,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>36516</v>
+        <v>44992</v>
       </c>
       <c r="K3" t="s">
         <v>38</v>
@@ -513,10 +687,10 @@
         <v>41</v>
       </c>
       <c r="Q3">
-        <v>43823</v>
+        <v>44992</v>
       </c>
       <c r="R3">
-        <v>44554</v>
+        <v>44992</v>
       </c>
       <c r="S3" t="s">
         <v>30</v>
@@ -525,7 +699,7 @@
         <v>42</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -533,19 +707,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>44992</v>
+      </c>
+      <c r="F4" t="s">
         <v>45</v>
-      </c>
-      <c r="E4">
-        <v>44976</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
@@ -557,7 +731,7 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>25563</v>
+        <v>44992</v>
       </c>
       <c r="K4" t="s">
         <v>38</v>
@@ -576,10 +750,10 @@
         <v>29</v>
       </c>
       <c r="Q4">
-        <v>43462</v>
+        <v>45000</v>
       </c>
       <c r="R4">
-        <v>44193</v>
+        <v>44992</v>
       </c>
       <c r="S4" t="s">
         <v>30</v>
@@ -588,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -596,16 +770,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
       <c r="E5">
-        <v>44975</v>
+        <v>44973</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
@@ -620,13 +794,13 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>25622</v>
+        <v>25620</v>
       </c>
       <c r="K5" t="s">
         <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5"/>
       <c r="N5">
@@ -639,10 +813,10 @@
         <v>41</v>
       </c>
       <c r="Q5">
-        <v>43829</v>
+        <v>43827</v>
       </c>
       <c r="R5">
-        <v>44560</v>
+        <v>44558</v>
       </c>
       <c r="S5" t="s">
         <v>30</v>
@@ -651,7 +825,7 @@
         <v>42</v>
       </c>
       <c r="U5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -659,7 +833,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -668,7 +842,7 @@
         <v>35</v>
       </c>
       <c r="E6">
-        <v>44971</v>
+        <v>44968</v>
       </c>
       <c r="F6" t="s">
         <v>36</v>
@@ -683,13 +857,13 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>25624</v>
+        <v>25621</v>
       </c>
       <c r="K6" t="s">
         <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
         <v>27</v>
@@ -701,22 +875,22 @@
         <v>28</v>
       </c>
       <c r="P6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6">
+        <v>43460</v>
+      </c>
+      <c r="R6">
+        <v>44191</v>
+      </c>
+      <c r="S6" t="s">
         <v>53</v>
       </c>
-      <c r="Q6">
-        <v>43463</v>
-      </c>
-      <c r="R6">
-        <v>44194</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>54</v>
       </c>
-      <c r="T6" t="s">
-        <v>55</v>
-      </c>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -724,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -733,7 +907,7 @@
         <v>35</v>
       </c>
       <c r="E7">
-        <v>44957</v>
+        <v>44950</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
@@ -748,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="J7">
-        <v>25667</v>
+        <v>25660</v>
       </c>
       <c r="K7" t="s">
         <v>38</v>
@@ -766,22 +940,22 @@
         <v>28</v>
       </c>
       <c r="P7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7">
+        <v>43455</v>
+      </c>
+      <c r="R7">
+        <v>44186</v>
+      </c>
+      <c r="S7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" t="s">
         <v>57</v>
       </c>
-      <c r="Q7">
-        <v>43462</v>
-      </c>
-      <c r="R7">
-        <v>44193</v>
-      </c>
-      <c r="S7" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" t="s">
-        <v>58</v>
-      </c>
       <c r="U7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -789,41 +963,41 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>60</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8">
+        <v>44970</v>
+      </c>
+      <c r="F8" t="s">
         <v>61</v>
       </c>
-      <c r="E8">
-        <v>44972</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>62</v>
       </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8">
-        <v>25567</v>
+        <v>25565</v>
       </c>
       <c r="K8" t="s">
         <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8"/>
       <c r="N8">
-        <v>395007</v>
+        <v>985462</v>
       </c>
       <c r="O8" t="s">
         <v>28</v>
@@ -832,10 +1006,10 @@
         <v>29</v>
       </c>
       <c r="Q8">
-        <v>43464</v>
+        <v>43462</v>
       </c>
       <c r="R8">
-        <v>44560</v>
+        <v>44558</v>
       </c>
       <c r="S8" t="s">
         <v>30</v>
@@ -844,7 +1018,7 @@
         <v>31</v>
       </c>
       <c r="U8" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -852,16 +1026,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
         <v>65</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>66</v>
       </c>
-      <c r="D9" t="s">
-        <v>67</v>
-      </c>
       <c r="E9">
-        <v>44954</v>
+        <v>44950</v>
       </c>
       <c r="F9" t="s">
         <v>36</v>
@@ -876,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="J9">
-        <v>25566</v>
+        <v>25562</v>
       </c>
       <c r="K9" t="s">
         <v>26</v>
@@ -895,10 +1069,10 @@
         <v>29</v>
       </c>
       <c r="Q9">
-        <v>25566</v>
+        <v>44999</v>
       </c>
       <c r="R9">
-        <v>25566</v>
+        <v>45000</v>
       </c>
       <c r="S9" t="s">
         <v>30</v>
@@ -907,7 +1081,7 @@
         <v>31</v>
       </c>
       <c r="U9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -915,16 +1089,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>69</v>
       </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
       <c r="E10">
-        <v>44974</v>
+        <v>44992</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -939,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>36486</v>
+        <v>36479</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
@@ -958,19 +1132,19 @@
         <v>41</v>
       </c>
       <c r="Q10">
-        <v>43091</v>
+        <v>43084</v>
       </c>
       <c r="R10">
-        <v>44126</v>
+        <v>44119</v>
       </c>
       <c r="S10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T10" t="s">
         <v>42</v>
       </c>
       <c r="U10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -978,16 +1152,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11">
-        <v>44939</v>
+        <v>44996</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -1002,16 +1176,16 @@
         <v>3</v>
       </c>
       <c r="J11">
-        <v>36177</v>
+        <v>44990</v>
       </c>
       <c r="K11" t="s">
         <v>26</v>
       </c>
       <c r="L11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" t="s">
         <v>74</v>
-      </c>
-      <c r="M11" t="s">
-        <v>75</v>
       </c>
       <c r="N11">
         <v>395004</v>
@@ -1023,10 +1197,10 @@
         <v>29</v>
       </c>
       <c r="Q11">
-        <v>44944</v>
+        <v>44996</v>
       </c>
       <c r="R11">
-        <v>44944</v>
+        <v>44997</v>
       </c>
       <c r="S11" t="s">
         <v>30</v>
@@ -1035,7 +1209,7 @@
         <v>31</v>
       </c>
       <c r="U11" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1272,7 @@
         <v>42</v>
       </c>
       <c r="U12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -1153,13 +1327,13 @@
         <v>44986</v>
       </c>
       <c r="S13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T13" t="s">
         <v>31</v>
       </c>
       <c r="U13" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -1222,7 +1396,7 @@
         <v>42</v>
       </c>
       <c r="U14" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -1233,7 +1407,7 @@
         <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
         <v>78</v>
@@ -1258,7 +1432,7 @@
         <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M15"/>
       <c r="N15">
@@ -1283,7 +1457,7 @@
         <v>31</v>
       </c>
       <c r="U15" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -1291,10 +1465,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -1321,7 +1495,7 @@
         <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M16"/>
       <c r="N16">
@@ -1346,7 +1520,7 @@
         <v>31</v>
       </c>
       <c r="U16" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -1384,7 +1558,7 @@
         <v>38</v>
       </c>
       <c r="L17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M17"/>
       <c r="N17">
@@ -1409,7 +1583,1907 @@
         <v>31</v>
       </c>
       <c r="U17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18">
+        <v>44998</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>44986</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18">
+        <v>395004</v>
+      </c>
+      <c r="O18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18">
+        <v>45014</v>
+      </c>
+      <c r="R18">
+        <v>45000</v>
+      </c>
+      <c r="S18" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19">
+        <v>44999</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>25569</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19">
+        <v>395004</v>
+      </c>
+      <c r="O19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19">
+        <v>25568</v>
+      </c>
+      <c r="R19">
+        <v>25569</v>
+      </c>
+      <c r="S19" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20">
+        <v>44997</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>45007</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20"/>
+      <c r="N20">
+        <v>395004</v>
+      </c>
+      <c r="O20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20">
+        <v>44998</v>
+      </c>
+      <c r="R20">
+        <v>45099</v>
+      </c>
+      <c r="S20" t="s">
+        <v>30</v>
+      </c>
+      <c r="T20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>44999</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>44993</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21">
+        <v>395663</v>
+      </c>
+      <c r="O21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q21">
+        <v>44985</v>
+      </c>
+      <c r="R21">
+        <v>44992</v>
+      </c>
+      <c r="S21" t="s">
+        <v>30</v>
+      </c>
+      <c r="T21" t="s">
+        <v>29</v>
+      </c>
+      <c r="U21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>44992</v>
+      </c>
+      <c r="F22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>44985</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22">
+        <v>395663</v>
+      </c>
+      <c r="O22" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q22">
+        <v>44984</v>
+      </c>
+      <c r="R22">
+        <v>44986</v>
+      </c>
+      <c r="S22" t="s">
+        <v>30</v>
+      </c>
+      <c r="T22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <v>44986</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>44985</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23">
+        <v>395663</v>
+      </c>
+      <c r="O23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q23">
+        <v>44999</v>
+      </c>
+      <c r="R23">
+        <v>44986</v>
+      </c>
+      <c r="S23" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24">
+        <v>44986</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>44986</v>
+      </c>
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>85</v>
+      </c>
+      <c r="M24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N24">
+        <v>395663</v>
+      </c>
+      <c r="O24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24">
+        <v>44983</v>
+      </c>
+      <c r="R24">
+        <v>44987</v>
+      </c>
+      <c r="S24" t="s">
+        <v>30</v>
+      </c>
+      <c r="T24" t="s">
+        <v>29</v>
+      </c>
+      <c r="U24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>44994</v>
+      </c>
+      <c r="F25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>44993</v>
+      </c>
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" t="s">
+        <v>85</v>
+      </c>
+      <c r="M25" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25">
+        <v>395663</v>
+      </c>
+      <c r="O25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25">
+        <v>44987</v>
+      </c>
+      <c r="R25">
+        <v>45007</v>
+      </c>
+      <c r="S25" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25" t="s">
+        <v>54</v>
+      </c>
+      <c r="U25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>44998</v>
+      </c>
+      <c r="F26" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>45007</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" t="s">
+        <v>108</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26">
+        <v>395663</v>
+      </c>
+      <c r="O26" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26">
+        <v>44998</v>
+      </c>
+      <c r="R26">
+        <v>44998</v>
+      </c>
+      <c r="S26" t="s">
+        <v>30</v>
+      </c>
+      <c r="T26" t="s">
+        <v>31</v>
+      </c>
+      <c r="U26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27">
+        <v>44997</v>
+      </c>
+      <c r="F27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>44997</v>
+      </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" t="s">
+        <v>109</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27">
+        <v>395009</v>
+      </c>
+      <c r="O27" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q27">
+        <v>44997</v>
+      </c>
+      <c r="R27">
+        <v>44997</v>
+      </c>
+      <c r="S27" t="s">
+        <v>30</v>
+      </c>
+      <c r="T27" t="s">
+        <v>54</v>
+      </c>
+      <c r="U27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28">
+        <v>44998</v>
+      </c>
+      <c r="F28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>44998</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28"/>
+      <c r="N28">
+        <v>395007</v>
+      </c>
+      <c r="O28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28">
+        <v>44998</v>
+      </c>
+      <c r="R28">
+        <v>44998</v>
+      </c>
+      <c r="S28" t="s">
+        <v>30</v>
+      </c>
+      <c r="T28" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>45000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>45008</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29">
+        <v>395663</v>
+      </c>
+      <c r="O29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29">
+        <v>45009</v>
+      </c>
+      <c r="R29">
+        <v>44986</v>
+      </c>
+      <c r="S29" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" t="s">
+        <v>31</v>
+      </c>
+      <c r="U29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30">
+        <v>44998</v>
+      </c>
+      <c r="F30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>44998</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30">
+        <v>395663</v>
+      </c>
+      <c r="O30" t="s">
+        <v>40</v>
+      </c>
+      <c r="P30" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q30">
+        <v>44268</v>
+      </c>
+      <c r="R30">
+        <v>44998</v>
+      </c>
+      <c r="S30" t="s">
+        <v>30</v>
+      </c>
+      <c r="T30" t="s">
+        <v>42</v>
+      </c>
+      <c r="U30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31">
+        <v>44998</v>
+      </c>
+      <c r="F31" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>44998</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" t="s">
+        <v>73</v>
+      </c>
+      <c r="M31"/>
+      <c r="N31">
+        <v>395663</v>
+      </c>
+      <c r="O31" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q31">
+        <v>44268</v>
+      </c>
+      <c r="R31">
+        <v>44998</v>
+      </c>
+      <c r="S31" t="s">
+        <v>30</v>
+      </c>
+      <c r="T31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32">
+        <v>44998</v>
+      </c>
+      <c r="F32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>44998</v>
+      </c>
+      <c r="K32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32">
+        <v>395663</v>
+      </c>
+      <c r="O32" t="s">
+        <v>40</v>
+      </c>
+      <c r="P32" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q32">
+        <v>44268</v>
+      </c>
+      <c r="R32">
+        <v>44998</v>
+      </c>
+      <c r="S32" t="s">
+        <v>30</v>
+      </c>
+      <c r="T32" t="s">
+        <v>42</v>
+      </c>
+      <c r="U32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33">
+        <v>44999</v>
+      </c>
+      <c r="F33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>44999</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" t="s">
+        <v>73</v>
+      </c>
+      <c r="M33"/>
+      <c r="N33">
+        <v>395007</v>
+      </c>
+      <c r="O33" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q33">
+        <v>44998</v>
+      </c>
+      <c r="R33">
+        <v>44998</v>
+      </c>
+      <c r="S33" t="s">
+        <v>30</v>
+      </c>
+      <c r="T33" t="s">
+        <v>42</v>
+      </c>
+      <c r="U33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34">
+        <v>44985</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>44986</v>
+      </c>
+      <c r="K34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" t="s">
+        <v>85</v>
+      </c>
+      <c r="M34"/>
+      <c r="N34">
+        <v>395004</v>
+      </c>
+      <c r="O34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34">
+        <v>44993</v>
+      </c>
+      <c r="R34">
+        <v>45001</v>
+      </c>
+      <c r="S34" t="s">
+        <v>30</v>
+      </c>
+      <c r="T34" t="s">
+        <v>31</v>
+      </c>
+      <c r="U34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>44997</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>45008</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M35"/>
+      <c r="N35">
+        <v>395004</v>
+      </c>
+      <c r="O35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35">
+        <v>44998</v>
+      </c>
+      <c r="R35">
+        <v>45000</v>
+      </c>
+      <c r="S35" t="s">
+        <v>30</v>
+      </c>
+      <c r="T35" t="s">
+        <v>31</v>
+      </c>
+      <c r="U35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36">
+        <v>44998</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>44998</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" t="s">
+        <v>73</v>
+      </c>
+      <c r="M36"/>
+      <c r="N36">
+        <v>395663</v>
+      </c>
+      <c r="O36" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36">
+        <v>44998</v>
+      </c>
+      <c r="R36">
+        <v>44997</v>
+      </c>
+      <c r="S36" t="s">
+        <v>30</v>
+      </c>
+      <c r="T36" t="s">
+        <v>31</v>
+      </c>
+      <c r="U36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37">
+        <v>44986</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>35534</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" t="s">
+        <v>125</v>
+      </c>
+      <c r="M37" t="s">
+        <v>125</v>
+      </c>
+      <c r="N37">
+        <v>395005</v>
+      </c>
+      <c r="O37" t="s">
+        <v>40</v>
+      </c>
+      <c r="P37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q37">
+        <v>44196</v>
+      </c>
+      <c r="R37">
+        <v>44985</v>
+      </c>
+      <c r="S37" t="s">
+        <v>30</v>
+      </c>
+      <c r="T37" t="s">
+        <v>42</v>
+      </c>
+      <c r="U37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38">
+        <v>44992</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>44999</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>85</v>
+      </c>
+      <c r="M38" t="s">
+        <v>85</v>
+      </c>
+      <c r="N38">
+        <v>395004</v>
+      </c>
+      <c r="O38" t="s">
+        <v>86</v>
+      </c>
+      <c r="P38" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q38">
+        <v>44999</v>
+      </c>
+      <c r="R38">
+        <v>44999</v>
+      </c>
+      <c r="S38" t="s">
+        <v>30</v>
+      </c>
+      <c r="T38" t="s">
+        <v>42</v>
+      </c>
+      <c r="U38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39">
+        <v>44993</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>44999</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" t="s">
+        <v>129</v>
+      </c>
+      <c r="M39"/>
+      <c r="N39">
+        <v>395007</v>
+      </c>
+      <c r="O39" t="s">
+        <v>86</v>
+      </c>
+      <c r="P39" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q39">
+        <v>44994</v>
+      </c>
+      <c r="R39">
+        <v>44998</v>
+      </c>
+      <c r="S39" t="s">
+        <v>30</v>
+      </c>
+      <c r="T39" t="s">
+        <v>42</v>
+      </c>
+      <c r="U39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40">
+        <v>44992</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>44987</v>
+      </c>
+      <c r="K40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" t="s">
+        <v>85</v>
+      </c>
+      <c r="M40" t="s">
+        <v>85</v>
+      </c>
+      <c r="N40">
+        <v>395004</v>
+      </c>
+      <c r="O40" t="s">
+        <v>28</v>
+      </c>
+      <c r="P40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40">
+        <v>44992</v>
+      </c>
+      <c r="R40">
+        <v>44987</v>
+      </c>
+      <c r="S40" t="s">
+        <v>30</v>
+      </c>
+      <c r="T40" t="s">
+        <v>31</v>
+      </c>
+      <c r="U40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41">
+        <v>44997</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>44983</v>
+      </c>
+      <c r="K41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" t="s">
+        <v>132</v>
+      </c>
+      <c r="M41"/>
+      <c r="N41">
+        <v>395005</v>
+      </c>
+      <c r="O41" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q41">
+        <v>44997</v>
+      </c>
+      <c r="R41">
+        <v>44996</v>
+      </c>
+      <c r="S41" t="s">
+        <v>30</v>
+      </c>
+      <c r="T41" t="s">
+        <v>42</v>
+      </c>
+      <c r="U41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42">
+        <v>44999</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>44999</v>
+      </c>
+      <c r="K42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" t="s">
+        <v>73</v>
+      </c>
+      <c r="M42"/>
+      <c r="N42">
+        <v>395004</v>
+      </c>
+      <c r="O42" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q42">
+        <v>44999</v>
+      </c>
+      <c r="R42">
+        <v>44999</v>
+      </c>
+      <c r="S42" t="s">
+        <v>136</v>
+      </c>
+      <c r="T42" t="s">
+        <v>42</v>
+      </c>
+      <c r="U42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43">
+        <v>44985</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>44993</v>
+      </c>
+      <c r="K43" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" t="s">
+        <v>85</v>
+      </c>
+      <c r="M43" t="s">
+        <v>85</v>
+      </c>
+      <c r="N43">
+        <v>395005</v>
+      </c>
+      <c r="O43" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q43">
+        <v>44994</v>
+      </c>
+      <c r="R43">
+        <v>44994</v>
+      </c>
+      <c r="S43" t="s">
+        <v>70</v>
+      </c>
+      <c r="T43" t="s">
+        <v>42</v>
+      </c>
+      <c r="U43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44">
+        <v>45001</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>45000</v>
+      </c>
+      <c r="K44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" t="s">
+        <v>140</v>
+      </c>
+      <c r="M44"/>
+      <c r="N44">
+        <v>395005</v>
+      </c>
+      <c r="O44" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q44">
+        <v>44993</v>
+      </c>
+      <c r="R44">
+        <v>44992</v>
+      </c>
+      <c r="S44" t="s">
+        <v>30</v>
+      </c>
+      <c r="T44" t="s">
+        <v>31</v>
+      </c>
+      <c r="U44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45">
+        <v>45007</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>44985</v>
+      </c>
+      <c r="K45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" t="s">
+        <v>141</v>
+      </c>
+      <c r="M45" t="s">
+        <v>141</v>
+      </c>
+      <c r="N45">
+        <v>395005</v>
+      </c>
+      <c r="O45" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q45">
+        <v>44999</v>
+      </c>
+      <c r="R45">
+        <v>44992</v>
+      </c>
+      <c r="S45" t="s">
+        <v>30</v>
+      </c>
+      <c r="T45" t="s">
+        <v>31</v>
+      </c>
+      <c r="U45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46">
+        <v>45000</v>
+      </c>
+      <c r="F46" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>44938</v>
+      </c>
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" t="s">
+        <v>85</v>
+      </c>
+      <c r="M46"/>
+      <c r="N46">
+        <v>878989</v>
+      </c>
+      <c r="O46" t="s">
+        <v>86</v>
+      </c>
+      <c r="P46" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q46">
+        <v>44693</v>
+      </c>
+      <c r="R46">
+        <v>44924</v>
+      </c>
+      <c r="S46" t="s">
+        <v>106</v>
+      </c>
+      <c r="T46" t="s">
+        <v>146</v>
+      </c>
+      <c r="U46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47">
+        <v>45016</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>44984</v>
+      </c>
+      <c r="K47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L47" t="s">
+        <v>85</v>
+      </c>
+      <c r="M47"/>
+      <c r="N47">
+        <v>395004</v>
+      </c>
+      <c r="O47" t="s">
+        <v>28</v>
+      </c>
+      <c r="P47" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q47">
+        <v>44994</v>
+      </c>
+      <c r="R47">
+        <v>45001</v>
+      </c>
+      <c r="S47" t="s">
+        <v>30</v>
+      </c>
+      <c r="T47" t="s">
+        <v>42</v>
+      </c>
+      <c r="U47" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
